--- a/response.xlsx
+++ b/response.xlsx
@@ -37,7 +37,7 @@
     <t>titles</t>
   </si>
   <si>
-    <t>220 Srv-17-Cas.utmn.ru Microsoft ESMTP MAIL Service ready at Tue, 14 Jun 2022 18:05:13 +0500; Outlook</t>
+    <t>220 Srv-17-Cas.utmn.ru Microsoft ESMTP MAIL Service ready at Thu, 16 Jun 2022 19:02:58 +0500; Outlook</t>
   </si>
   <si>
     <t>source</t>
